--- a/resultData/Диски внешние.xlsx
+++ b/resultData/Диски внешние.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\clouds\Dropbox\programming\UTM\resultData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AC9357-4393-4CA7-A8D0-ED420803CEEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Диски внешние" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Диски внешние" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Диски внешние'!$A$3:$N$3</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="269">
   <si>
     <t>Встречаемость</t>
   </si>
@@ -827,20 +835,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -856,15 +863,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1152,92 +1168,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s"/>
-      <c r="B1" t="s"/>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="n">
-        <v>6621.214285714285</v>
-      </c>
-      <c r="G1" t="n">
-        <v>54.96412689000889</v>
-      </c>
-      <c r="H1" t="n">
-        <v>19.66627771295216</v>
-      </c>
-      <c r="I1" t="n">
-        <v>1640.654867256637</v>
-      </c>
-      <c r="J1" t="n">
-        <v>6621.214285714285</v>
-      </c>
-      <c r="K1" t="n">
-        <v>21.52490421455939</v>
-      </c>
-      <c r="L1" t="n">
-        <v>42.28877737226277</v>
-      </c>
-      <c r="M1" t="n">
+      <c r="F1">
+        <v>6621.2142857142853</v>
+      </c>
+      <c r="G1">
+        <v>54.964126890008892</v>
+      </c>
+      <c r="H1">
+        <v>19.666277712952159</v>
+      </c>
+      <c r="I1">
+        <v>1640.6548672566371</v>
+      </c>
+      <c r="J1">
+        <v>6621.2142857142853</v>
+      </c>
+      <c r="K1">
+        <v>21.524904214559388</v>
+      </c>
+      <c r="L1">
+        <v>42.288777372262771</v>
+      </c>
+      <c r="M1">
         <v>5793.5625</v>
       </c>
-      <c r="N1" t="n">
+      <c r="N1">
         <v>13.87264292128105</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s"/>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>6621.214285714285</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>6621.2142857142853</v>
+      </c>
+      <c r="G2">
         <v>1265.82037815126</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>1247.475155279503</v>
       </c>
-      <c r="I2" t="n">
-        <v>1687.76050420168</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="I2">
+        <v>1687.7605042016801</v>
+      </c>
+      <c r="J2">
         <v>1265.82037815126</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>3443.031428571428</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>2207.071428571428</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>2001.762458471761</v>
       </c>
-      <c r="N2" t="n">
-        <v>1484.06527093596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>1484.0652709359599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1281,9 +1285,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="n">
-        <v>953539.0064140721</v>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>953539.00641407212</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1297,7 +1301,6 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>20</v>
       </c>
@@ -1310,16 +1313,13 @@
       <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
       <c r="M4" t="s">
         <v>24</v>
       </c>
-      <c r="N4" t="s"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="n">
-        <v>629188.0612948961</v>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>629188.06129489606</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -1333,7 +1333,6 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>27</v>
       </c>
@@ -1346,16 +1345,13 @@
       <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="s"/>
       <c r="L5" t="s">
         <v>29</v>
       </c>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="n">
-        <v>449588.1249453726</v>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>449588.12494537258</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -1366,21 +1362,18 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s"/>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s"/>
       <c r="J6" t="s">
         <v>34</v>
       </c>
       <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="L6" t="s"/>
       <c r="M6" t="s">
         <v>36</v>
       </c>
@@ -1388,9 +1381,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="n">
-        <v>378581.7929281037</v>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>378581.79292810371</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -1404,29 +1397,25 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>40</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" t="s"/>
       <c r="J7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" t="s"/>
       <c r="L7" t="s">
         <v>29</v>
       </c>
-      <c r="M7" t="s"/>
       <c r="N7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="n">
-        <v>361506.0212596391</v>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>361506.02125963912</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -1437,29 +1426,25 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>45</v>
       </c>
       <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="I8" t="s"/>
       <c r="J8" t="s">
         <v>34</v>
       </c>
-      <c r="K8" t="s"/>
       <c r="L8" t="s">
         <v>29</v>
       </c>
-      <c r="M8" t="s"/>
       <c r="N8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="n">
-        <v>358452.5975734933</v>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>358452.59757349332</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1470,25 +1455,19 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s"/>
       <c r="G9" t="s">
         <v>48</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="I9" t="s"/>
       <c r="J9" t="s">
         <v>41</v>
       </c>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="n">
-        <v>313876.9549610781</v>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>313876.95496107813</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -1499,7 +1478,6 @@
       <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>51</v>
       </c>
@@ -1512,7 +1490,6 @@
       <c r="J10" t="s">
         <v>53</v>
       </c>
-      <c r="K10" t="s"/>
       <c r="L10" t="s">
         <v>54</v>
       </c>
@@ -1523,9 +1500,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="n">
-        <v>313876.9549610781</v>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>313876.95496107813</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -1536,7 +1513,6 @@
       <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s"/>
       <c r="G11" t="s">
         <v>57</v>
       </c>
@@ -1549,7 +1525,6 @@
       <c r="J11" t="s">
         <v>53</v>
       </c>
-      <c r="K11" t="s"/>
       <c r="L11" t="s">
         <v>59</v>
       </c>
@@ -1560,9 +1535,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="n">
-        <v>288326.4294785773</v>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>288326.42947857728</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
@@ -1576,7 +1551,6 @@
       <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>62</v>
       </c>
@@ -1589,7 +1563,6 @@
       <c r="J12" t="s">
         <v>64</v>
       </c>
-      <c r="K12" t="s"/>
       <c r="L12" t="s">
         <v>65</v>
       </c>
@@ -1600,9 +1573,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="n">
-        <v>286000.0936395808</v>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>286000.09363958082</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -1613,7 +1586,6 @@
       <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s"/>
       <c r="G13" t="s">
         <v>68</v>
       </c>
@@ -1629,7 +1601,6 @@
       <c r="K13" t="s">
         <v>70</v>
       </c>
-      <c r="L13" t="s"/>
       <c r="M13" t="s">
         <v>36</v>
       </c>
@@ -1637,9 +1608,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="n">
-        <v>283849.8834896148</v>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>283849.88348961482</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -1681,9 +1652,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="n">
-        <v>281859.7416834721</v>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>281859.74168347212</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -1697,7 +1668,6 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>79</v>
       </c>
@@ -1716,14 +1686,13 @@
       <c r="L15" t="s">
         <v>82</v>
       </c>
-      <c r="M15" t="s"/>
       <c r="N15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="n">
-        <v>258429.0319265907</v>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>258429.03192659069</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -1755,7 +1724,6 @@
       <c r="K16" t="s">
         <v>88</v>
       </c>
-      <c r="L16" t="s"/>
       <c r="M16" t="s">
         <v>36</v>
       </c>
@@ -1763,9 +1731,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="n">
-        <v>247847.1843737841</v>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>247847.18437378411</v>
       </c>
       <c r="B17" t="s">
         <v>89</v>
@@ -1794,7 +1762,6 @@
       <c r="J17" t="s">
         <v>64</v>
       </c>
-      <c r="K17" t="s"/>
       <c r="L17" t="s">
         <v>93</v>
       </c>
@@ -1805,8 +1772,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="n">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>242072.2737581722</v>
       </c>
       <c r="B18" t="s">
@@ -1818,7 +1785,6 @@
       <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" t="s"/>
       <c r="G18" t="s">
         <v>96</v>
       </c>
@@ -1831,7 +1797,6 @@
       <c r="J18" t="s">
         <v>53</v>
       </c>
-      <c r="K18" t="s"/>
       <c r="L18" t="s">
         <v>97</v>
       </c>
@@ -1842,9 +1807,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" t="n">
-        <v>232972.737312258</v>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>232972.73731225799</v>
       </c>
       <c r="B19" t="s">
         <v>98</v>
@@ -1858,7 +1823,6 @@
       <c r="E19" t="s">
         <v>19</v>
       </c>
-      <c r="F19" t="s"/>
       <c r="G19" t="s">
         <v>100</v>
       </c>
@@ -1884,9 +1848,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="n">
-        <v>231234.7541978516</v>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>231234.75419785161</v>
       </c>
       <c r="B20" t="s">
         <v>102</v>
@@ -1897,14 +1861,12 @@
       <c r="E20" t="s">
         <v>19</v>
       </c>
-      <c r="F20" t="s"/>
       <c r="G20" t="s">
         <v>104</v>
       </c>
       <c r="H20" t="s">
         <v>92</v>
       </c>
-      <c r="I20" t="s"/>
       <c r="J20" t="s">
         <v>64</v>
       </c>
@@ -1914,14 +1876,13 @@
       <c r="L20" t="s">
         <v>106</v>
       </c>
-      <c r="M20" t="s"/>
       <c r="N20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="n">
-        <v>229488.1263187605</v>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>229488.12631876051</v>
       </c>
       <c r="B21" t="s">
         <v>107</v>
@@ -1932,7 +1893,6 @@
       <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" t="s"/>
       <c r="G21" t="s">
         <v>109</v>
       </c>
@@ -1948,7 +1908,6 @@
       <c r="K21" t="s">
         <v>111</v>
       </c>
-      <c r="L21" t="s"/>
       <c r="M21" t="s">
         <v>36</v>
       </c>
@@ -1956,9 +1915,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="n">
-        <v>227846.1559131863</v>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>227846.15591318629</v>
       </c>
       <c r="B22" t="s">
         <v>112</v>
@@ -1969,7 +1928,6 @@
       <c r="E22" t="s">
         <v>19</v>
       </c>
-      <c r="F22" t="s"/>
       <c r="G22" t="s">
         <v>114</v>
       </c>
@@ -1985,15 +1943,13 @@
       <c r="K22" t="s">
         <v>115</v>
       </c>
-      <c r="L22" t="s"/>
       <c r="M22" t="s">
         <v>36</v>
       </c>
-      <c r="N22" t="s"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" t="n">
-        <v>224987.2824767503</v>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>224987.28247675029</v>
       </c>
       <c r="B23" t="s">
         <v>116</v>
@@ -2007,7 +1963,6 @@
       <c r="E23" t="s">
         <v>19</v>
       </c>
-      <c r="F23" t="s"/>
       <c r="G23" t="s">
         <v>118</v>
       </c>
@@ -2026,14 +1981,13 @@
       <c r="L23" t="s">
         <v>29</v>
       </c>
-      <c r="M23" t="s"/>
       <c r="N23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" t="n">
-        <v>221469.7649780406</v>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>221469.76497804059</v>
       </c>
       <c r="B24" t="s">
         <v>120</v>
@@ -2062,7 +2016,6 @@
       <c r="K24" t="s">
         <v>123</v>
       </c>
-      <c r="L24" t="s"/>
       <c r="M24" t="s">
         <v>36</v>
       </c>
@@ -2070,9 +2023,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="n">
-        <v>218285.2634651153</v>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>218285.26346511531</v>
       </c>
       <c r="B25" t="s">
         <v>124</v>
@@ -2086,7 +2039,6 @@
       <c r="E25" t="s">
         <v>19</v>
       </c>
-      <c r="F25" t="s"/>
       <c r="G25" t="s">
         <v>126</v>
       </c>
@@ -2099,8 +2051,6 @@
       <c r="J25" t="s">
         <v>64</v>
       </c>
-      <c r="K25" t="s"/>
-      <c r="L25" t="s"/>
       <c r="M25" t="s">
         <v>36</v>
       </c>
@@ -2108,9 +2058,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" t="n">
-        <v>215725.3904818081</v>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>215725.39048180811</v>
       </c>
       <c r="B26" t="s">
         <v>128</v>
@@ -2127,7 +2077,6 @@
       <c r="G26" t="s">
         <v>130</v>
       </c>
-      <c r="H26" t="s"/>
       <c r="I26" t="s">
         <v>22</v>
       </c>
@@ -2137,7 +2086,6 @@
       <c r="K26" t="s">
         <v>131</v>
       </c>
-      <c r="L26" t="s"/>
       <c r="M26" t="s">
         <v>36</v>
       </c>
@@ -2145,9 +2093,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="n">
-        <v>215374.9911978978</v>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>215374.99119789779</v>
       </c>
       <c r="B27" t="s">
         <v>132</v>
@@ -2158,7 +2106,6 @@
       <c r="E27" t="s">
         <v>19</v>
       </c>
-      <c r="F27" t="s"/>
       <c r="G27" t="s">
         <v>134</v>
       </c>
@@ -2184,9 +2131,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="n">
-        <v>207422.2118297573</v>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>207422.21182975729</v>
       </c>
       <c r="B28" t="s">
         <v>136</v>
@@ -2200,7 +2147,6 @@
       <c r="E28" t="s">
         <v>19</v>
       </c>
-      <c r="F28" t="s"/>
       <c r="G28" t="s">
         <v>138</v>
       </c>
@@ -2226,9 +2172,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" t="n">
-        <v>205053.8741265417</v>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>205053.87412654169</v>
       </c>
       <c r="B29" t="s">
         <v>140</v>
@@ -2242,7 +2188,6 @@
       <c r="E29" t="s">
         <v>19</v>
       </c>
-      <c r="F29" t="s"/>
       <c r="G29" t="s">
         <v>142</v>
       </c>
@@ -2255,17 +2200,15 @@
       <c r="J29" t="s">
         <v>64</v>
       </c>
-      <c r="K29" t="s"/>
       <c r="L29" t="s">
         <v>143</v>
       </c>
       <c r="M29" t="s">
         <v>36</v>
       </c>
-      <c r="N29" t="s"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" t="n">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>204236.2724679026</v>
       </c>
       <c r="B30" t="s">
@@ -2298,7 +2241,6 @@
       <c r="K30" t="s">
         <v>88</v>
       </c>
-      <c r="L30" t="s"/>
       <c r="M30" t="s">
         <v>36</v>
       </c>
@@ -2306,8 +2248,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
-      <c r="A31" t="n">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>203584.2369272229</v>
       </c>
       <c r="B31" t="s">
@@ -2322,7 +2264,6 @@
       <c r="E31" t="s">
         <v>19</v>
       </c>
-      <c r="F31" t="s"/>
       <c r="G31" t="s">
         <v>149</v>
       </c>
@@ -2335,7 +2276,6 @@
       <c r="J31" t="s">
         <v>64</v>
       </c>
-      <c r="K31" t="s"/>
       <c r="L31" t="s">
         <v>29</v>
       </c>
@@ -2346,9 +2286,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" t="n">
-        <v>200674.7281348272</v>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>200674.72813482719</v>
       </c>
       <c r="B32" t="s">
         <v>150</v>
@@ -2377,8 +2317,6 @@
       <c r="J32" t="s">
         <v>64</v>
       </c>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
       <c r="M32" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2324,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" t="n">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>195537.749792121</v>
       </c>
       <c r="B33" t="s">
@@ -2399,14 +2337,12 @@
       <c r="E33" t="s">
         <v>19</v>
       </c>
-      <c r="F33" t="s"/>
       <c r="G33" t="s">
         <v>154</v>
       </c>
       <c r="H33" t="s">
         <v>33</v>
       </c>
-      <c r="I33" t="s"/>
       <c r="J33" t="s">
         <v>64</v>
       </c>
@@ -2416,14 +2352,13 @@
       <c r="L33" t="s">
         <v>29</v>
       </c>
-      <c r="M33" t="s"/>
       <c r="N33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" t="n">
-        <v>186883.0952559444</v>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>186883.09525594441</v>
       </c>
       <c r="B34" t="s">
         <v>156</v>
@@ -2437,7 +2372,6 @@
       <c r="E34" t="s">
         <v>19</v>
       </c>
-      <c r="F34" t="s"/>
       <c r="G34" t="s">
         <v>158</v>
       </c>
@@ -2453,7 +2387,6 @@
       <c r="K34" t="s">
         <v>159</v>
       </c>
-      <c r="L34" t="s"/>
       <c r="M34" t="s">
         <v>36</v>
       </c>
@@ -2461,9 +2394,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
-      <c r="A35" t="n">
-        <v>178096.118286869</v>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>178096.11828686899</v>
       </c>
       <c r="B35" t="s">
         <v>160</v>
@@ -2492,8 +2425,6 @@
       <c r="J35" t="s">
         <v>110</v>
       </c>
-      <c r="K35" t="s"/>
-      <c r="L35" t="s"/>
       <c r="M35" t="s">
         <v>36</v>
       </c>
@@ -2501,9 +2432,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" t="n">
-        <v>175745.0384647948</v>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>175745.03846479481</v>
       </c>
       <c r="B36" t="s">
         <v>163</v>
@@ -2514,25 +2445,19 @@
       <c r="E36" t="s">
         <v>19</v>
       </c>
-      <c r="F36" t="s"/>
       <c r="G36" t="s">
         <v>165</v>
       </c>
       <c r="H36" t="s">
         <v>33</v>
       </c>
-      <c r="I36" t="s"/>
-      <c r="J36" t="s"/>
       <c r="K36" t="s">
         <v>166</v>
       </c>
-      <c r="L36" t="s"/>
-      <c r="M36" t="s"/>
-      <c r="N36" t="s"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" t="n">
-        <v>160015.7949169439</v>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>160015.79491694391</v>
       </c>
       <c r="B37" t="s">
         <v>167</v>
@@ -2558,7 +2483,6 @@
       <c r="J37" t="s">
         <v>53</v>
       </c>
-      <c r="K37" t="s"/>
       <c r="L37" t="s">
         <v>29</v>
       </c>
@@ -2569,9 +2493,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
-      <c r="A38" t="n">
-        <v>158007.3186633755</v>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>158007.31866337551</v>
       </c>
       <c r="B38" t="s">
         <v>169</v>
@@ -2585,7 +2509,6 @@
       <c r="E38" t="s">
         <v>19</v>
       </c>
-      <c r="F38" t="s"/>
       <c r="G38" t="s">
         <v>171</v>
       </c>
@@ -2598,18 +2521,16 @@
       <c r="J38" t="s">
         <v>110</v>
       </c>
-      <c r="K38" t="s"/>
       <c r="L38" t="s">
         <v>29</v>
       </c>
       <c r="M38" t="s">
         <v>36</v>
       </c>
-      <c r="N38" t="s"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" t="n">
-        <v>155654.966513167</v>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>155654.96651316699</v>
       </c>
       <c r="B39" t="s">
         <v>172</v>
@@ -2638,15 +2559,12 @@
       <c r="J39" t="s">
         <v>53</v>
       </c>
-      <c r="K39" t="s"/>
       <c r="L39" t="s">
         <v>29</v>
       </c>
-      <c r="M39" t="s"/>
-      <c r="N39" t="s"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" t="n">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>154954.6155267377</v>
       </c>
       <c r="B40" t="s">
@@ -2661,7 +2579,6 @@
       <c r="E40" t="s">
         <v>19</v>
       </c>
-      <c r="F40" t="s"/>
       <c r="G40" t="s">
         <v>177</v>
       </c>
@@ -2674,16 +2591,13 @@
       <c r="J40" t="s">
         <v>53</v>
       </c>
-      <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
       <c r="M40" t="s">
         <v>36</v>
       </c>
-      <c r="N40" t="s"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" t="n">
-        <v>151032.7273246011</v>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>151032.72732460109</v>
       </c>
       <c r="B41" t="s">
         <v>178</v>
@@ -2697,7 +2611,6 @@
       <c r="E41" t="s">
         <v>19</v>
       </c>
-      <c r="F41" t="s"/>
       <c r="G41" t="s">
         <v>180</v>
       </c>
@@ -2710,7 +2623,6 @@
       <c r="J41" t="s">
         <v>110</v>
       </c>
-      <c r="K41" t="s"/>
       <c r="L41" t="s">
         <v>29</v>
       </c>
@@ -2721,9 +2633,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" t="n">
-        <v>150921.394647416</v>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>150921.39464741599</v>
       </c>
       <c r="B42" t="s">
         <v>181</v>
@@ -2737,7 +2649,6 @@
       <c r="E42" t="s">
         <v>19</v>
       </c>
-      <c r="F42" t="s"/>
       <c r="G42" t="s">
         <v>183</v>
       </c>
@@ -2750,7 +2661,6 @@
       <c r="J42" t="s">
         <v>64</v>
       </c>
-      <c r="K42" t="s"/>
       <c r="L42" t="s">
         <v>106</v>
       </c>
@@ -2761,9 +2671,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
-      <c r="A43" t="n">
-        <v>149391.4774685347</v>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>149391.47746853469</v>
       </c>
       <c r="B43" t="s">
         <v>184</v>
@@ -2774,7 +2684,6 @@
       <c r="E43" t="s">
         <v>19</v>
       </c>
-      <c r="F43" t="s"/>
       <c r="G43" t="s">
         <v>186</v>
       </c>
@@ -2787,7 +2696,6 @@
       <c r="J43" t="s">
         <v>53</v>
       </c>
-      <c r="K43" t="s"/>
       <c r="L43" t="s">
         <v>29</v>
       </c>
@@ -2798,9 +2706,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44" t="n">
-        <v>149391.4774685347</v>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>149391.47746853469</v>
       </c>
       <c r="B44" t="s">
         <v>187</v>
@@ -2814,7 +2722,6 @@
       <c r="E44" t="s">
         <v>19</v>
       </c>
-      <c r="F44" t="s"/>
       <c r="G44" t="s">
         <v>189</v>
       </c>
@@ -2827,7 +2734,6 @@
       <c r="J44" t="s">
         <v>110</v>
       </c>
-      <c r="K44" t="s"/>
       <c r="L44" t="s">
         <v>29</v>
       </c>
@@ -2838,9 +2744,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
-      <c r="A45" t="n">
-        <v>148670.6735934601</v>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>148670.67359346009</v>
       </c>
       <c r="B45" t="s">
         <v>190</v>
@@ -2851,29 +2757,25 @@
       <c r="E45" t="s">
         <v>19</v>
       </c>
-      <c r="F45" t="s"/>
       <c r="G45" t="s">
         <v>192</v>
       </c>
       <c r="H45" t="s">
         <v>80</v>
       </c>
-      <c r="I45" t="s"/>
       <c r="J45" t="s">
         <v>64</v>
       </c>
       <c r="K45" t="s">
         <v>193</v>
       </c>
-      <c r="L45" t="s"/>
-      <c r="M45" t="s"/>
       <c r="N45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" t="n">
-        <v>147980.0241879633</v>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>147980.02418796331</v>
       </c>
       <c r="B46" t="s">
         <v>194</v>
@@ -2887,7 +2789,6 @@
       <c r="E46" t="s">
         <v>19</v>
       </c>
-      <c r="F46" t="s"/>
       <c r="G46" t="s">
         <v>196</v>
       </c>
@@ -2900,8 +2801,6 @@
       <c r="J46" t="s">
         <v>110</v>
       </c>
-      <c r="K46" t="s"/>
-      <c r="L46" t="s"/>
       <c r="M46" t="s">
         <v>36</v>
       </c>
@@ -2909,9 +2808,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
-      <c r="A47" t="n">
-        <v>144099.0772633057</v>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>144099.07726330569</v>
       </c>
       <c r="B47" t="s">
         <v>197</v>
@@ -2925,7 +2824,6 @@
       <c r="E47" t="s">
         <v>19</v>
       </c>
-      <c r="F47" t="s"/>
       <c r="G47" t="s">
         <v>199</v>
       </c>
@@ -2941,7 +2839,6 @@
       <c r="K47" t="s">
         <v>200</v>
       </c>
-      <c r="L47" t="s"/>
       <c r="M47" t="s">
         <v>36</v>
       </c>
@@ -2949,9 +2846,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
-      <c r="A48" t="n">
-        <v>138701.5112023641</v>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>138701.51120236411</v>
       </c>
       <c r="B48" t="s">
         <v>201</v>
@@ -2990,9 +2887,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
-      <c r="A49" t="n">
-        <v>137938.923287758</v>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>137938.92328775799</v>
       </c>
       <c r="B49" t="s">
         <v>204</v>
@@ -3003,29 +2900,25 @@
       <c r="E49" t="s">
         <v>19</v>
       </c>
-      <c r="F49" t="s"/>
       <c r="G49" t="s">
         <v>206</v>
       </c>
       <c r="H49" t="s">
         <v>33</v>
       </c>
-      <c r="I49" t="s"/>
       <c r="J49" t="s">
         <v>53</v>
       </c>
-      <c r="K49" t="s"/>
       <c r="L49" t="s">
         <v>29</v>
       </c>
-      <c r="M49" t="s"/>
       <c r="N49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
-      <c r="A50" t="n">
-        <v>137938.923287758</v>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>137938.92328775799</v>
       </c>
       <c r="B50" t="s">
         <v>207</v>
@@ -3036,29 +2929,25 @@
       <c r="E50" t="s">
         <v>19</v>
       </c>
-      <c r="F50" t="s"/>
       <c r="G50" t="s">
         <v>209</v>
       </c>
       <c r="H50" t="s">
         <v>33</v>
       </c>
-      <c r="I50" t="s"/>
       <c r="J50" t="s">
         <v>110</v>
       </c>
-      <c r="K50" t="s"/>
       <c r="L50" t="s">
         <v>29</v>
       </c>
-      <c r="M50" t="s"/>
       <c r="N50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
-      <c r="A51" t="n">
-        <v>137938.923287758</v>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>137938.92328775799</v>
       </c>
       <c r="B51" t="s">
         <v>210</v>
@@ -3069,28 +2958,24 @@
       <c r="E51" t="s">
         <v>19</v>
       </c>
-      <c r="F51" t="s"/>
       <c r="G51" t="s">
         <v>212</v>
       </c>
       <c r="H51" t="s">
         <v>33</v>
       </c>
-      <c r="I51" t="s"/>
       <c r="J51" t="s">
         <v>53</v>
       </c>
-      <c r="K51" t="s"/>
       <c r="L51" t="s">
         <v>29</v>
       </c>
-      <c r="M51" t="s"/>
       <c r="N51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
-      <c r="A52" t="n">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>135028.0280814328</v>
       </c>
       <c r="B52" t="s">
@@ -3105,26 +2990,21 @@
       <c r="E52" t="s">
         <v>19</v>
       </c>
-      <c r="F52" t="s"/>
       <c r="G52" t="s">
         <v>215</v>
       </c>
       <c r="H52" t="s">
         <v>92</v>
       </c>
-      <c r="I52" t="s"/>
       <c r="J52" t="s">
         <v>64</v>
       </c>
-      <c r="K52" t="s"/>
-      <c r="L52" t="s"/>
-      <c r="M52" t="s"/>
       <c r="N52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
-      <c r="A53" t="n">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>134886.2201511201</v>
       </c>
       <c r="B53" t="s">
@@ -3136,27 +3016,22 @@
       <c r="E53" t="s">
         <v>19</v>
       </c>
-      <c r="F53" t="s"/>
       <c r="G53" t="s">
         <v>218</v>
       </c>
       <c r="H53" t="s">
         <v>33</v>
       </c>
-      <c r="I53" t="s"/>
       <c r="J53" t="s">
         <v>110</v>
       </c>
-      <c r="K53" t="s"/>
-      <c r="L53" t="s"/>
-      <c r="M53" t="s"/>
       <c r="N53" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
-      <c r="A54" t="n">
-        <v>131184.2601562852</v>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>131184.26015628519</v>
       </c>
       <c r="B54" t="s">
         <v>219</v>
@@ -3167,26 +3042,21 @@
       <c r="E54" t="s">
         <v>19</v>
       </c>
-      <c r="F54" t="s"/>
-      <c r="G54" t="s"/>
       <c r="H54" t="s">
         <v>21</v>
       </c>
-      <c r="I54" t="s"/>
       <c r="J54" t="s">
         <v>110</v>
       </c>
       <c r="K54" t="s">
         <v>221</v>
       </c>
-      <c r="L54" t="s"/>
-      <c r="M54" t="s"/>
       <c r="N54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
-      <c r="A55" t="n">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>122429.4987054626</v>
       </c>
       <c r="B55" t="s">
@@ -3198,7 +3068,6 @@
       <c r="E55" t="s">
         <v>19</v>
       </c>
-      <c r="F55" t="s"/>
       <c r="G55" t="s">
         <v>224</v>
       </c>
@@ -3211,8 +3080,6 @@
       <c r="J55" t="s">
         <v>64</v>
       </c>
-      <c r="K55" t="s"/>
-      <c r="L55" t="s"/>
       <c r="M55" t="s">
         <v>36</v>
       </c>
@@ -3220,8 +3087,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
-      <c r="A56" t="n">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>121220.1567062557</v>
       </c>
       <c r="B56" t="s">
@@ -3233,7 +3100,6 @@
       <c r="E56" t="s">
         <v>19</v>
       </c>
-      <c r="F56" t="s"/>
       <c r="G56" t="s">
         <v>227</v>
       </c>
@@ -3246,8 +3112,6 @@
       <c r="J56" t="s">
         <v>64</v>
       </c>
-      <c r="K56" t="s"/>
-      <c r="L56" t="s"/>
       <c r="M56" t="s">
         <v>36</v>
       </c>
@@ -3255,9 +3119,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
-      <c r="A57" t="n">
-        <v>118548.5517808051</v>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>118548.55178080509</v>
       </c>
       <c r="B57" t="s">
         <v>228</v>
@@ -3271,7 +3135,6 @@
       <c r="E57" t="s">
         <v>19</v>
       </c>
-      <c r="F57" t="s"/>
       <c r="G57" t="s">
         <v>199</v>
       </c>
@@ -3287,7 +3150,6 @@
       <c r="K57" t="s">
         <v>200</v>
       </c>
-      <c r="L57" t="s"/>
       <c r="M57" t="s">
         <v>36</v>
       </c>
@@ -3295,8 +3157,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
-      <c r="A58" t="n">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>113234.7018707481</v>
       </c>
       <c r="B58" t="s">
@@ -3308,7 +3170,6 @@
       <c r="E58" t="s">
         <v>19</v>
       </c>
-      <c r="F58" t="s"/>
       <c r="G58" t="s">
         <v>232</v>
       </c>
@@ -3321,15 +3182,12 @@
       <c r="J58" t="s">
         <v>64</v>
       </c>
-      <c r="K58" t="s"/>
-      <c r="L58" t="s"/>
-      <c r="M58" t="s"/>
       <c r="N58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
-      <c r="A59" t="n">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>113234.7018707481</v>
       </c>
       <c r="B59" t="s">
@@ -3341,7 +3199,6 @@
       <c r="E59" t="s">
         <v>19</v>
       </c>
-      <c r="F59" t="s"/>
       <c r="G59" t="s">
         <v>235</v>
       </c>
@@ -3354,16 +3211,13 @@
       <c r="J59" t="s">
         <v>64</v>
       </c>
-      <c r="K59" t="s"/>
-      <c r="L59" t="s"/>
-      <c r="M59" t="s"/>
       <c r="N59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
-      <c r="A60" t="n">
-        <v>105690.2110642821</v>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>105690.21106428211</v>
       </c>
       <c r="B60" t="s">
         <v>236</v>
@@ -3374,7 +3228,6 @@
       <c r="E60" t="s">
         <v>19</v>
       </c>
-      <c r="F60" t="s"/>
       <c r="G60" t="s">
         <v>238</v>
       </c>
@@ -3384,9 +3237,6 @@
       <c r="I60" t="s">
         <v>22</v>
       </c>
-      <c r="J60" t="s"/>
-      <c r="K60" t="s"/>
-      <c r="L60" t="s"/>
       <c r="M60" t="s">
         <v>36</v>
       </c>
@@ -3394,8 +3244,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
-      <c r="A61" t="n">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>103733.7432690807</v>
       </c>
       <c r="B61" t="s">
@@ -3407,7 +3257,6 @@
       <c r="E61" t="s">
         <v>19</v>
       </c>
-      <c r="F61" t="s"/>
       <c r="G61" t="s">
         <v>134</v>
       </c>
@@ -3420,8 +3269,6 @@
       <c r="J61" t="s">
         <v>110</v>
       </c>
-      <c r="K61" t="s"/>
-      <c r="L61" t="s"/>
       <c r="M61" t="s">
         <v>36</v>
       </c>
@@ -3429,9 +3276,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
-      <c r="A62" t="n">
-        <v>102782.4222690034</v>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>102782.42226900339</v>
       </c>
       <c r="B62" t="s">
         <v>241</v>
@@ -3442,25 +3289,19 @@
       <c r="E62" t="s">
         <v>19</v>
       </c>
-      <c r="F62" t="s"/>
-      <c r="G62" t="s"/>
       <c r="H62" t="s">
         <v>80</v>
       </c>
-      <c r="I62" t="s"/>
       <c r="J62" t="s">
         <v>64</v>
       </c>
       <c r="K62" t="s">
         <v>243</v>
       </c>
-      <c r="L62" t="s"/>
-      <c r="M62" t="s"/>
-      <c r="N62" t="s"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" t="n">
-        <v>97290.36002014323</v>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>97290.360020143227</v>
       </c>
       <c r="B63" t="s">
         <v>244</v>
@@ -3471,27 +3312,22 @@
       <c r="E63" t="s">
         <v>19</v>
       </c>
-      <c r="F63" t="s"/>
       <c r="G63" t="s">
         <v>246</v>
       </c>
       <c r="H63" t="s">
         <v>33</v>
       </c>
-      <c r="I63" t="s"/>
-      <c r="J63" t="s"/>
-      <c r="K63" t="s"/>
       <c r="L63" t="s">
         <v>29</v>
       </c>
-      <c r="M63" t="s"/>
       <c r="N63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
-      <c r="A64" t="n">
-        <v>95917.49320972536</v>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>95917.493209725362</v>
       </c>
       <c r="B64" t="s">
         <v>247</v>
@@ -3520,7 +3356,6 @@
       <c r="J64" t="s">
         <v>64</v>
       </c>
-      <c r="K64" t="s"/>
       <c r="L64" t="s">
         <v>29</v>
       </c>
@@ -3531,9 +3366,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
-      <c r="A65" t="n">
-        <v>81235.92092321791</v>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>81235.920923217913</v>
       </c>
       <c r="B65" t="s">
         <v>250</v>
@@ -3544,7 +3379,6 @@
       <c r="E65" t="s">
         <v>19</v>
       </c>
-      <c r="F65" t="s"/>
       <c r="G65" t="s">
         <v>203</v>
       </c>
@@ -3557,7 +3391,6 @@
       <c r="J65" t="s">
         <v>64</v>
       </c>
-      <c r="K65" t="s"/>
       <c r="L65" t="s">
         <v>29</v>
       </c>
@@ -3568,8 +3401,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
-      <c r="A66" t="n">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>72041.12408850342</v>
       </c>
       <c r="B66" t="s">
@@ -3581,7 +3414,6 @@
       <c r="E66" t="s">
         <v>19</v>
       </c>
-      <c r="F66" t="s"/>
       <c r="G66" t="s">
         <v>192</v>
       </c>
@@ -3594,18 +3426,16 @@
       <c r="J66" t="s">
         <v>64</v>
       </c>
-      <c r="K66" t="s"/>
       <c r="L66" t="s">
         <v>29</v>
       </c>
-      <c r="M66" t="s"/>
       <c r="N66" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
-      <c r="A67" t="n">
-        <v>67346.45054629128</v>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67346.450546291278</v>
       </c>
       <c r="B67" t="s">
         <v>254</v>
@@ -3616,7 +3446,6 @@
       <c r="E67" t="s">
         <v>19</v>
       </c>
-      <c r="F67" t="s"/>
       <c r="G67" t="s">
         <v>249</v>
       </c>
@@ -3629,14 +3458,10 @@
       <c r="J67" t="s">
         <v>64</v>
       </c>
-      <c r="K67" t="s"/>
-      <c r="L67" t="s"/>
-      <c r="M67" t="s"/>
-      <c r="N67" t="s"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" t="n">
-        <v>53046.90251582199</v>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>53046.902515821988</v>
       </c>
       <c r="B68" t="s">
         <v>256</v>
@@ -3647,7 +3472,6 @@
       <c r="E68" t="s">
         <v>19</v>
       </c>
-      <c r="F68" t="s"/>
       <c r="G68" t="s">
         <v>258</v>
       </c>
@@ -3660,7 +3484,6 @@
       <c r="J68" t="s">
         <v>64</v>
       </c>
-      <c r="K68" t="s"/>
       <c r="L68" t="s">
         <v>29</v>
       </c>
@@ -3671,9 +3494,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
-      <c r="A69" t="n">
-        <v>43419.47727474005</v>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>43419.477274740049</v>
       </c>
       <c r="B69" t="s">
         <v>259</v>
@@ -3684,7 +3507,6 @@
       <c r="E69" t="s">
         <v>19</v>
       </c>
-      <c r="F69" t="s"/>
       <c r="G69" t="s">
         <v>258</v>
       </c>
@@ -3697,16 +3519,13 @@
       <c r="J69" t="s">
         <v>64</v>
       </c>
-      <c r="K69" t="s"/>
       <c r="L69" t="s">
         <v>29</v>
       </c>
-      <c r="M69" t="s"/>
-      <c r="N69" t="s"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" t="n">
-        <v>41594.34833504525</v>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>41594.348335045252</v>
       </c>
       <c r="B70" t="s">
         <v>261</v>
@@ -3717,29 +3536,25 @@
       <c r="E70" t="s">
         <v>19</v>
       </c>
-      <c r="F70" t="s"/>
       <c r="G70" t="s">
         <v>258</v>
       </c>
       <c r="H70" t="s">
         <v>33</v>
       </c>
-      <c r="I70" t="s"/>
       <c r="J70" t="s">
         <v>64</v>
       </c>
-      <c r="K70" t="s"/>
       <c r="L70" t="s">
         <v>29</v>
       </c>
-      <c r="M70" t="s"/>
       <c r="N70" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
-      <c r="A71" t="n">
-        <v>41594.34833504525</v>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>41594.348335045252</v>
       </c>
       <c r="B71" t="s">
         <v>263</v>
@@ -3750,29 +3565,25 @@
       <c r="E71" t="s">
         <v>19</v>
       </c>
-      <c r="F71" t="s"/>
       <c r="G71" t="s">
         <v>258</v>
       </c>
       <c r="H71" t="s">
         <v>33</v>
       </c>
-      <c r="I71" t="s"/>
       <c r="J71" t="s">
         <v>64</v>
       </c>
-      <c r="K71" t="s"/>
       <c r="L71" t="s">
         <v>29</v>
       </c>
-      <c r="M71" t="s"/>
       <c r="N71" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
-      <c r="A72" t="n">
-        <v>41594.34833504525</v>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>41594.348335045252</v>
       </c>
       <c r="B72" t="s">
         <v>265</v>
@@ -3783,29 +3594,25 @@
       <c r="E72" t="s">
         <v>19</v>
       </c>
-      <c r="F72" t="s"/>
       <c r="G72" t="s">
         <v>258</v>
       </c>
       <c r="H72" t="s">
         <v>33</v>
       </c>
-      <c r="I72" t="s"/>
       <c r="J72" t="s">
         <v>64</v>
       </c>
-      <c r="K72" t="s"/>
       <c r="L72" t="s">
         <v>29</v>
       </c>
-      <c r="M72" t="s"/>
       <c r="N72" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
-      <c r="A73" t="n">
-        <v>15098.03778511405</v>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>15098.037785114049</v>
       </c>
       <c r="B73" t="s">
         <v>267</v>
@@ -3816,19 +3623,24 @@
       <c r="E73" t="s">
         <v>19</v>
       </c>
-      <c r="F73" t="s"/>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s"/>
       <c r="J73" t="s">
         <v>64</v>
       </c>
-      <c r="K73" t="s"/>
-      <c r="L73" t="s"/>
-      <c r="M73" t="s"/>
-      <c r="N73" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <autoFilter ref="A3:N3" xr:uid="{77292CAF-255E-4613-9B8D-89356496034B}"/>
+  <conditionalFormatting sqref="A1:XFD2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>